--- a/medicine/Enfance/De_l'autre_côté_du_miroir/De_l'autre_côté_du_miroir.xlsx
+++ b/medicine/Enfance/De_l'autre_côté_du_miroir/De_l'autre_côté_du_miroir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>De_l%27autre_c%C3%B4t%C3%A9_du_miroir</t>
+          <t>De_l'autre_côté_du_miroir</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 De l'autre côté du miroir (titre original : Through the Looking-Glass, and What Alice Found There ; littéralement : « De l'autre côté du miroir, et ce qu'Alice y trouva ») est un roman écrit par Lewis Carroll en 1871, qui fait suite aux Aventures d'Alice au pays des merveilles.
-En France, ce roman a été traduit pour la première fois en 1930 par Marie-Madeleine Fayet, sous le titre De l'autre côté du miroir[1]. Une autre traduction, de Paul Gibson, publiée en 1931, a pour titre La Traversée du miroir[2].
+En France, ce roman a été traduit pour la première fois en 1930 par Marie-Madeleine Fayet, sous le titre De l'autre côté du miroir. Une autre traduction, de Paul Gibson, publiée en 1931, a pour titre La Traversée du miroir.
 L'œuvre raconte la rencontre d'Alice dans un monde merveilleux le jour où elle plonge dans le miroir. Elle y fait la rencontre de l'œuf prétentieux, des bonshommes jumeaux inséparables Bonnet blanc et Blanc Bonnet ou encore des fleurs qui parlent. Les aventures d'Alice dans le pays — de l'autre côté du miroir — correspondent au déplacement des pièces et des pions au cours d'une partie d'échecs.
 </t>
         </is>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>De_l%27autre_c%C3%B4t%C3%A9_du_miroir</t>
+          <t>De_l'autre_côté_du_miroir</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>L'histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alice, qui s'ennuie, s'endort dans un fauteuil et rêve qu'elle passe de l'autre côté du miroir du salon.
 Le monde du miroir est à la fois la campagne anglaise, un échiquier, et le monde à l'envers, où il faut courir très vite pour rester sur place. Alice y croise des pièces d'échecs (reine, cavalier) et des personnages de la culture enfantine de l'époque victorienne.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>De_l%27autre_c%C3%B4t%C3%A9_du_miroir</t>
+          <t>De_l'autre_côté_du_miroir</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Résumé par chapitre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chapitre I - La maison du miroir : Alice est en train de jouer avec les petits de sa chatte Dinah, un chaton noir (nommé Kitty) et un chaton blanc (nommé Perce-Neige), lorsqu’elle se demande à quoi ressemble le monde dans le reflet du miroir. Elle grimpe sur le dessus de la cheminée et parvient à sa surprise à traverser le verre et se retrouve de l’autre côté du miroir. Dans la Maison du Miroir, la pièce est la même mais dans laquelle tout est inversé. Elle constate que les pièces de l’échiquier ont pris vie mais demeurent assez petites pour qu’elle puisse les prendre en main. Elle trouve un livre écrit dans une langue qu’elle ne comprend pas, car étant un livre du miroir, l’écriture est inversée. En le tenant devant le miroir elle parvient à lire le poème « Jabberwocky » qui reste énigmatique pour elle.
 Chapitre II - Le jardin des fleurs vivantes : Alice explore le pays du Miroir et l’extérieur de la maison. Elle se perd dans le jardin et se met à parler aux fleurs qui à son grand étonnement lui répondent. Celles-ci la critiquent ce qui déplait fortement à la jeune fille. Plus loin dans le jardin, Alice rencontre la Reine Rouge qui est à présent une taille humaine et l’impressionne par sa capacité à courir à toute vitesse. Elle lui révèle que la campagne est quadrillée comme un échiquier géant, et propose à Alice de la faire reine si elle parvient à se déplacer jusqu’à la dernière rangée.
@@ -571,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>De_l%27autre_c%C3%B4t%C3%A9_du_miroir</t>
+          <t>De_l'autre_côté_du_miroir</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,8 +607,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Personnages principaux
-Alice
+          <t>Personnages principaux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Alice
 Le Lièvre de mars
 Le Chapelier
 Le Gros coco
@@ -614,7 +635,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>De_l%27autre_c%C3%B4t%C3%A9_du_miroir</t>
+          <t>De_l'autre_côté_du_miroir</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -632,7 +653,9 @@
           <t>Une suite et des ruptures</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La différence fondamentale entre Les Aventures d'Alice au pays des merveilles et De l'autre côté du miroir est que cette dernière œuvre montre chez l'héroïne une évolution incontestable : de pion, elle devient reine.
 À l'inverse, l'Alice du « Pays des merveilles » arrive inchangée à la fin du récit, en dépit des distorsions physiques qu'elle a subies en consommant diverses boissons et nourritures. Les Aventures d'Alice au pays des merveilles ressemble, en fait, à la promenade en bateau qui l'a vue naître : une rêverie sans but précis. En cela, l'œuvre de Carroll était, à l'heure victorienne, une véritable révolution dans une Littérature d'enfance et de jeunesse visant avant tout à former l'enfant.
@@ -646,7 +669,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>De_l%27autre_c%C3%B4t%C3%A9_du_miroir</t>
+          <t>De_l'autre_côté_du_miroir</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -664,7 +687,9 @@
           <t>Le monde inversé</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le monde du miroir se présente comme un monde inversé. Ainsi Alice, pour atteindre le jardin, doit-elle d'abord s'en éloigner, de même qu'il lui faut, dans cet univers étrange, courir très vite pour rester sur place.
 Si l'espace est mis à mal, le temps n'est pas non plus en reste. Il est ainsi possible de se souvenir du futur, comme la Reine Blanche (en), qui évoque ce qui s'est produit « aujourd'hui en quinze ».
@@ -679,7 +704,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>De_l%27autre_c%C3%B4t%C3%A9_du_miroir</t>
+          <t>De_l'autre_côté_du_miroir</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -697,7 +722,9 @@
           <t>Alice et le non-sens</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">L’œuvre joue essentiellement sur le non-sens, exploitant les failles de la langue anglaise (avec des équivalences pour la version française), jouant sur la synonymie, la polysémie, le jeu de mots et autres motifs de quiproquo.
 Les personnages auxquels Alice se trouve confrontée sont en fait de véritables linguistes, dont les discours sont une contestation magistrale de l'arbitraire du langage.
@@ -711,7 +738,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>De_l%27autre_c%C3%B4t%C3%A9_du_miroir</t>
+          <t>De_l'autre_côté_du_miroir</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -729,16 +756,87 @@
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Ce livre a été adapté plusieurs fois, en combinaison avec Les Aventures d'Alice au pays des merveilles aussi bien que seul.
-Adaptations seules
-Alice through the looking glass (film, 1966) était un musical spécial de NBC TV, premièrement diffuser le 6 Novembre. Il comprend la musique de Moose Charlap, et les stars Ricardo Montalban, Agnes Moorehead, Jack Palance, Jimmy Durante, et les Smothers Brothers, avec Judi Rolin dans le rôle d'Alice.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce livre a été adapté plusieurs fois, en combinaison avec Les Aventures d'Alice au pays des merveilles aussi bien que seul.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>De_l'autre_côté_du_miroir</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/De_l%27autre_c%C3%B4t%C3%A9_du_miroir</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Adaptations seules</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Alice through the looking glass (film, 1966) était un musical spécial de NBC TV, premièrement diffuser le 6 Novembre. Il comprend la musique de Moose Charlap, et les stars Ricardo Montalban, Agnes Moorehead, Jack Palance, Jimmy Durante, et les Smothers Brothers, avec Judi Rolin dans le rôle d'Alice.
 Alice au pays des merveilles : À travers le miroir (1998) est un téléfilm de Channel 4 mettant en scène Kate Beckinsale dans le rôle d'Alice.
 Through the Looking Glass (2008) est un opéra de chambre composé par Alan John à un Livret (musique) de Andrew Upton.
-Alice de l'autre côté du miroir (2016), réalisé par James Bobin, c'est une suite du reboot Disney réalisé par Tim Burton Alice au pays des merveilles (2010). Il ne suit pas l'intrigue du livre.
-Adaptations avec Les Aventures d'Alice au pays des merveilles
-Films et séries
+Alice de l'autre côté du miroir (2016), réalisé par James Bobin, c'est une suite du reboot Disney réalisé par Tim Burton Alice au pays des merveilles (2010). Il ne suit pas l'intrigue du livre.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>De_l'autre_côté_du_miroir</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/De_l%27autre_c%C3%B4t%C3%A9_du_miroir</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Adaptations avec Les Aventures d'Alice au pays des merveilles</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Films et séries
 Alice au pays des merveilles (film, 1933) est une adaptation live-action pré-code réalisé par Norman Z. McLeod, avec Charlotte Henry dans le rôle d'Alice, avec Cary Grant, Gary Cooper, et d'autres. Malgré le nom, le film présente plus d'éléments de De l'autre côté du miroir.
 Le dessin animé Alice au pays des merveilles (film, 1951) est le treizième film d'animation de Walt Disney et le plus connu de toutes les adaptations des travaux de Lewis Caroll.
 Alice au pays des merveilles (film, 1972) est un film musical avec Fiona Fullerton dans le rôle de Alice
